--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1176"/>
+  <dimension ref="A1:I1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43038,6 +43038,41 @@
         <v>6700</v>
       </c>
     </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1177"/>
+  <dimension ref="A1:I1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43073,6 +43073,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1178"/>
+  <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43108,6 +43108,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1179"/>
+  <dimension ref="A1:I1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43143,6 +43143,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1180"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43180,6 +43180,43 @@
         </is>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43217,6 +43217,43 @@
         </is>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43254,6 +43254,43 @@
         </is>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43291,6 +43291,41 @@
         </is>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43326,6 +43326,43 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43363,6 +43363,43 @@
         </is>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43400,6 +43400,43 @@
         </is>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43437,6 +43437,43 @@
         </is>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43474,6 +43474,78 @@
         </is>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43546,6 +43546,80 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43620,6 +43620,41 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43655,6 +43655,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>11100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43690,6 +43690,41 @@
         <v>11100</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43725,6 +43725,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>117500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43760,6 +43760,78 @@
         <v>117500</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43832,6 +43832,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43867,6 +43867,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2028"/>
+  <dimension ref="A1:I2029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72882,6 +72882,43 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="2029">
+      <c r="A2029" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2029" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2029" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2029" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2029" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2029"/>
+  <dimension ref="A1:I2030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72919,6 +72919,41 @@
         </is>
       </c>
     </row>
+    <row r="2030">
+      <c r="A2030" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2030" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2030" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2030" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2030" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2030"/>
+  <dimension ref="A1:I2031"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72954,6 +72954,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2031">
+      <c r="A2031" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2031" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2031" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2031" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2031" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2031"/>
+  <dimension ref="A1:I2032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72989,6 +72989,43 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="2032">
+      <c r="A2032" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2032" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2032" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2032" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2032" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2032"/>
+  <dimension ref="A1:I2033"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73026,6 +73026,43 @@
         </is>
       </c>
     </row>
+    <row r="2033">
+      <c r="A2033" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2033" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2033" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2033" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2033" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2033"/>
+  <dimension ref="A1:I2034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73063,6 +73063,43 @@
         </is>
       </c>
     </row>
+    <row r="2034">
+      <c r="A2034" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2034" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2034" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2034" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2034" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2034"/>
+  <dimension ref="A1:I2035"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73100,6 +73100,43 @@
         </is>
       </c>
     </row>
+    <row r="2035">
+      <c r="A2035" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2035" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2035" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2035" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2035" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2035"/>
+  <dimension ref="A1:I2036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73137,6 +73137,43 @@
         </is>
       </c>
     </row>
+    <row r="2036">
+      <c r="A2036" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2036" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2036" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2036" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2036" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2036"/>
+  <dimension ref="A1:I2037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73174,6 +73174,43 @@
         </is>
       </c>
     </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2037" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2037" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2037" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2037" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2037"/>
+  <dimension ref="A1:I2038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73211,6 +73211,43 @@
         </is>
       </c>
     </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2038" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2038" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2038" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2038"/>
+  <dimension ref="A1:I2039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73248,6 +73248,43 @@
         </is>
       </c>
     </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2039" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2039"/>
+  <dimension ref="A1:I2040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73285,6 +73285,43 @@
         </is>
       </c>
     </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2040" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2040"/>
+  <dimension ref="A1:I2041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73322,6 +73322,43 @@
         </is>
       </c>
     </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2041" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2041"/>
+  <dimension ref="A1:I2042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73359,6 +73359,43 @@
         </is>
       </c>
     </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2042" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7935.xlsx
+++ b/data/7935.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2042"/>
+  <dimension ref="A1:I2043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73396,6 +73396,43 @@
         </is>
       </c>
     </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>7935</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>MILUX</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2043" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
